--- a/SQL Cheatsheet.xlsx
+++ b/SQL Cheatsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFC2D765-6FE5-4EE1-9D07-22BDD34B4C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA707A3-1763-476E-99CC-46A398E6EC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{E4A5F62C-8D06-41C7-B4DE-EB3603C85B7B}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="11835" windowHeight="15585" xr2:uid="{E4A5F62C-8D06-41C7-B4DE-EB3603C85B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL Basics" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Concept</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Select allows us to extract data from a database</t>
-  </si>
-  <si>
     <t>SELECT</t>
   </si>
   <si>
@@ -90,14 +87,130 @@
   </si>
   <si>
     <t>Modifies a table</t>
+  </si>
+  <si>
+    <t>Select allows us to extract data from a database. The FROM keyword in the example tells us which table to use.</t>
+  </si>
+  <si>
+    <t>Select all the data from the customer table:
+SELECT *
+FROM customer;
+Select which columns to show:
+SELECT name, city
+FROM customer;</t>
+  </si>
+  <si>
+    <t>We can also restrict the output from our table when selecting our data:
+SELECT cid FROM customer
+WHERE cid != 'c002';
+Where cid is a column in the data, and 'c002' is a piece of data in the list.</t>
+  </si>
+  <si>
+    <t>WHERE comparison operators</t>
+  </si>
+  <si>
+    <t>List of comparison operators:
+=     equals
+!=   not equals
+&gt;     greater than
+&lt;     less than
+&gt;=   greater than or equal to
+&lt;=   less than or equal to</t>
+  </si>
+  <si>
+    <t>More Examples</t>
+  </si>
+  <si>
+    <t>SELECT * FROM product WHERE price &lt;= 0.5 AND quantity &gt; 12000;
+This will show a new column, showing the result of quantity * price
+SELECT pid, name, quantity*price FROM product WHERE quantity*price &gt; 12000</t>
+  </si>
+  <si>
+    <t>SELECT pid, name
+FROM product
+ORDER BY name;</t>
+  </si>
+  <si>
+    <t>ORDER BY</t>
+  </si>
+  <si>
+    <t>We can show a table which is ordered in a particular way using the ORDER BY command. If we don't provide any specific way of organising the data, it will do it from lowest to highest (whether it be numbers or string values)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We can also specify to organise columns by ascending and descending orders using the arrow key
+SELECT cid, pid FROM ordering </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ORDER BY pid DESC, cid ASC;</t>
+    </r>
+  </si>
+  <si>
+    <t>Aggregate queries</t>
+  </si>
+  <si>
+    <t>COUNT - returns count of rows
+SUM - returns sum of argument
+AVG - returns average of argument
+MIN - returns smallest value of argument
+MAX - returns largest value of argument</t>
+  </si>
+  <si>
+    <t>Note: COUNT works on any column, the others only work on numeric columns.</t>
+  </si>
+  <si>
+    <t>The format of the code is like this:
+SELECT [AGGREGATE QUERY](pid) -&gt; FROM ordering WHERE pid = 'p03';
+SELECT COUNT(pid)/SUM(quantity)… etc</t>
+  </si>
+  <si>
+    <t>GROUP BY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -134,7 +247,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -167,13 +283,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F6ADFDBF-32B0-4AE5-8A41-A09672AA5465}" name="Table1" displayName="Table1" ref="A1:D8" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:D8" xr:uid="{F6ADFDBF-32B0-4AE5-8A41-A09672AA5465}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DBC7B815-F2A7-4DA5-8441-47B7F550B802}" name="Concept" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{ED6369AD-69D7-4F5F-B95F-CDD4EC63D99D}" name="Code" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{6F6F6C3D-8054-47C3-9682-1E8C8AF8650B}" name="Explained" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{781BE121-1657-455A-AA71-C2F8A061D823}" name="Notes" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F6ADFDBF-32B0-4AE5-8A41-A09672AA5465}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E12" xr:uid="{F6ADFDBF-32B0-4AE5-8A41-A09672AA5465}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{DBC7B815-F2A7-4DA5-8441-47B7F550B802}" name="Concept" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{ED6369AD-69D7-4F5F-B95F-CDD4EC63D99D}" name="Code" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{6F6F6C3D-8054-47C3-9682-1E8C8AF8650B}" name="Explained" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{781BE121-1657-455A-AA71-C2F8A061D823}" name="Notes" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{D9BF4098-26DA-4A5E-901D-00CE9F1A1BBC}" name="More Examples" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -476,22 +593,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F752F51-D0E3-4E26-9966-8896CF2092BE}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,61 +622,114 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
+    </row>
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/SQL Cheatsheet.xlsx
+++ b/SQL Cheatsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA707A3-1763-476E-99CC-46A398E6EC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27BCDF9-762D-4307-9820-56A3B96E8210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="11835" windowHeight="15585" xr2:uid="{E4A5F62C-8D06-41C7-B4DE-EB3603C85B7B}"/>
+    <workbookView xWindow="-28920" yWindow="-885" windowWidth="29040" windowHeight="15720" xr2:uid="{E4A5F62C-8D06-41C7-B4DE-EB3603C85B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL Basics" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Concept</t>
   </si>
@@ -53,40 +75,16 @@
     <t>SELECT</t>
   </si>
   <si>
-    <t>INSERT</t>
-  </si>
-  <si>
-    <t>Inserts new data into a database</t>
-  </si>
-  <si>
-    <t>DELETE</t>
-  </si>
-  <si>
-    <t>Deletes data from a database</t>
-  </si>
-  <si>
     <t>UPDATE</t>
   </si>
   <si>
-    <t>Updates data in a database</t>
-  </si>
-  <si>
     <t>CREATE TABLE</t>
   </si>
   <si>
-    <t>Creates a new table</t>
-  </si>
-  <si>
     <t>DROP TABLE</t>
   </si>
   <si>
-    <t>Deletes a table</t>
-  </si>
-  <si>
     <t>ALTER TABLE</t>
-  </si>
-  <si>
-    <t>Modifies a table</t>
   </si>
   <si>
     <t>Select allows us to extract data from a database. The FROM keyword in the example tells us which table to use.</t>
@@ -195,6 +193,206 @@
   </si>
   <si>
     <t>GROUP BY</t>
+  </si>
+  <si>
+    <t>CREATE TABLE Employees (
+    EmployeeID INT PRIMARY KEY,
+    Name VARCHAR(50),
+    IsActive BOOLEAN,
+    Department VARCHAR(50)
+);</t>
+  </si>
+  <si>
+    <t>When we create a new table, we have to begin it using CREATE TABLE, and then give the name of the table, in our case Employees. Within this, we can then assign different columns, such as EmployeeID, Name, etc. We specify the primary key using the keyword PRIMARY KEY (which can only be used once), and we have to give the data type for each of the columns.</t>
+  </si>
+  <si>
+    <t>I'll create a list of SQL data types, but the most common are:
+- INT: for numbers
+- VARCHAR(50): strings with a maximum length of 50
+- BOOLEAN: Can only hold TRUE or FALSE
+- DECIMAL (10, 2): holds decimal values which can hold up to two decimal places</t>
+  </si>
+  <si>
+    <t>INSERT INTO Employees (EmployeeID, FirstName, LastName, Department)
+VALUES 
+    (2, 'Jane', 'Smith', 'Marketing'),
+    (3, 'David', 'Brown', 'IT');</t>
+  </si>
+  <si>
+    <t>If a table already exists, we can insert new data into a database. We use the keywords INSERT INTO, then give the table name and its columns. On the next line, we use the keyword VALUES, and add the data in one block, all within brackets. We can add multiple columns of data at once also.</t>
+  </si>
+  <si>
+    <t>INSERT INTO...
+VALUES…</t>
+  </si>
+  <si>
+    <t>DELETE FROM…
+WHERE…</t>
+  </si>
+  <si>
+    <t># Delete a single row of data
+DELETE FROM Employees
+WHERE EmployeeID = 4;
+# Delete multiple rows of data based on a condition
+DELETE FROM Employees
+WHERE Department = 'Marketing';
+# Delete all rows from a table
+DELETE FROM Employees;</t>
+  </si>
+  <si>
+    <t>We can delete rows of data in a table using the DELETE FROM command. We select the table we want to delete from, then we select WHERE we want to delete the rows.</t>
+  </si>
+  <si>
+    <t>UPDATE Employees
+SET Department = 'HR', Salary = 50000
+WHERE EmployeeID = 1;</t>
+  </si>
+  <si>
+    <t>DROP TABLE Employees;</t>
+  </si>
+  <si>
+    <t>Very easy to delete an entire table using the DROP TABLE command. This is different to deleting all rows of data, which can be done with the DELETE FROM Employees; (no second line) command.</t>
+  </si>
+  <si>
+    <t># Add a new column:
+ALTER TABLE Employees
+ADD COLUMN Email VARCHAR(100);
+# Drop a column:
+ALTER TABLE Employees
+DROP COLUMN Department;
+# Modifying a column's data type:
+ALTER TABLE Employees
+ALTER COLUMN Salary DECIMAL(10,2);</t>
+  </si>
+  <si>
+    <t>There are multiple options that we have here. When we use ALTER TABLE, we then have to add the action afterwards.</t>
+  </si>
+  <si>
+    <t># Example of summing quantities to create a TotalQuantity (result shown in the image on the right):
+SELECT ProductID, SUM(Quantity) AS TotalQuantity
+FROM Orders
+GROUP BY ProductID;</t>
+  </si>
+  <si>
+    <t>The way this is written is slightly strange, but we're basically able to show a new table (doesn't create a new table or override the old one) using these commands. We select a column, then select an aggregate function which uses values from another column. The results of these are then shown in a new column, in our case called TotalRevenue. We select the table, in our case a table called Orders, and then we use GROUP BY ProductID to group the results using this table.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">List of aggregate functions:
+ProductID, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SUM(Revenue)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Total sum of all the data
+ProductID, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COUNT(*)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Counts the number of occurrances of ProductID
+ProductID, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">AVG(Revenue) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- The average revenue of each product
+ProductID, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MAX(Revenue)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Maximum value for each product
+ProductID, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Min(Revenue)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Minumum value for each product</t>
+    </r>
+  </si>
+  <si>
+    <t>We can automatically update the values in an SQL table using this formula. This is how we edit the data in a table.</t>
   </si>
 </sst>
 </file>
@@ -282,6 +480,70 @@
 </styleSheet>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F6ADFDBF-32B0-4AE5-8A41-A09672AA5465}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E12" xr:uid="{F6ADFDBF-32B0-4AE5-8A41-A09672AA5465}"/>
@@ -297,9 +559,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -337,7 +599,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -443,7 +705,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -585,7 +847,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -595,17 +857,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F752F51-D0E3-4E26-9966-8896CF2092BE}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="66.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="49.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -623,15 +885,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -639,97 +901,130 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/SQL Cheatsheet.xlsx
+++ b/SQL Cheatsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27BCDF9-762D-4307-9820-56A3B96E8210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33CB102-90AB-41D9-B792-760E7897E8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-885" windowWidth="29040" windowHeight="15720" xr2:uid="{E4A5F62C-8D06-41C7-B4DE-EB3603C85B7B}"/>
+    <workbookView xWindow="-105" yWindow="8325" windowWidth="14610" windowHeight="7260" xr2:uid="{E4A5F62C-8D06-41C7-B4DE-EB3603C85B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL Basics" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Concept</t>
   </si>
@@ -393,6 +393,205 @@
   </si>
   <si>
     <t>We can automatically update the values in an SQL table using this formula. This is how we edit the data in a table.</t>
+  </si>
+  <si>
+    <t>Have data appear in a table</t>
+  </si>
+  <si>
+    <t>Built-in functions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>current_date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Gets the current date
+SELECT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">current_time </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Gets the current time
+SELECT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>current_user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Gets the current user</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT "Hello world!";
+SELECT 3 + 4;
+SELECT current_date AS today;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The first one simply produces a table with a column of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hello world!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and a piece of data underneath that says Hello world! The second one produces a first row which has 3 + 4, and a second row which has 7 inside of it. The final example, we display the current date, and we give a column header as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>today</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Show all SQL tables</t>
+  </si>
+  <si>
+    <t>SHOW tables;</t>
+  </si>
+  <si>
+    <t>Filter by characters in the string</t>
+  </si>
+  <si>
+    <t>SELECT * FROM your_table
+WHERE contact LIKE '%th%';</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We are checking in this instance whether or not one of the string variables within contact contains the letters th, by using the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"%xxx%"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> syntax and the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">LIKE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">keyword. It's basically like saying if </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contact.contains("th")</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -545,8 +744,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F6ADFDBF-32B0-4AE5-8A41-A09672AA5465}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E12" xr:uid="{F6ADFDBF-32B0-4AE5-8A41-A09672AA5465}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F6ADFDBF-32B0-4AE5-8A41-A09672AA5465}" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E16" xr:uid="{F6ADFDBF-32B0-4AE5-8A41-A09672AA5465}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DBC7B815-F2A7-4DA5-8441-47B7F550B802}" name="Concept" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{ED6369AD-69D7-4F5F-B95F-CDD4EC63D99D}" name="Code" dataDxfId="3"/>
@@ -855,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F752F51-D0E3-4E26-9966-8896CF2092BE}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,135 +1095,173 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="11" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="1" t="e" vm="1">
+      <c r="E13" s="1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/SQL Cheatsheet.xlsx
+++ b/SQL Cheatsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33CB102-90AB-41D9-B792-760E7897E8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D740E07-9A75-4BB2-A8AA-E401BE81405F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="8325" windowWidth="14610" windowHeight="7260" xr2:uid="{E4A5F62C-8D06-41C7-B4DE-EB3603C85B7B}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{E4A5F62C-8D06-41C7-B4DE-EB3603C85B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL Basics" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
+  <futureMetadata name="XLRICHVALUE" count="8">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -48,17 +48,87 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="1">
+  <valueMetadata count="8">
     <bk>
       <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
+    <bk>
+      <rc t="1" v="5"/>
+    </bk>
+    <bk>
+      <rc t="1" v="6"/>
+    </bk>
+    <bk>
+      <rc t="1" v="7"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Concept</t>
   </si>
@@ -591,6 +661,767 @@
         <scheme val="minor"/>
       </rPr>
       <t>contact.contains("th")</t>
+    </r>
+  </si>
+  <si>
+    <t>JOIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If we want to show the relationship between two tables, the best way to do this is with the JOIN parameter. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT ordering.ordno, product.name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- We are going to show the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ordering ordno </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in one column and the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> product name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in the next column</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FROM ordering JOIN product</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - We are connecting the ordering table with the product table</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ON ordering.pid = product.pid;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - We are linking the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ordering.pid </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">with the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>product.pid</t>
+    </r>
+  </si>
+  <si>
+    <t>Aliasing Table Names and column names</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We can use an alias instead of a name for tables and columns. Note how in the previous example we used the table name to distinguish the two pids: ordering.pid = product.pid. Note however that it is not always possible to have the table names aliasing. Define that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o = ordering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p = product</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FROM - JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> line of code.
+On the other hand, we can also change the column names when we produce an output table. In the top line of code, we assign o.ordno </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Order Number"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Multi-table JOIN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT c.name AS 'c Name', p.name AS 'p Name', o.quantity
+FROM ordering o
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JOIN product p ON o.pid = p.pid
+JOIN customer c ON o.cid = c.cid;</t>
+    </r>
+  </si>
+  <si>
+    <t>JOIN with WHERE</t>
+  </si>
+  <si>
+    <t>Adding some programming functionality, to allow us to filter through the data</t>
+  </si>
+  <si>
+    <t>JOIN and aggregate queries</t>
+  </si>
+  <si>
+    <t>A note on Cartesian Product</t>
+  </si>
+  <si>
+    <t>SELECT *
+FROM ordering JOIN product;</t>
+  </si>
+  <si>
+    <t>If we miss out a join condition we get all combinations of rows of both tables. So if you have far too many rows from your query, it may be because of this:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t># Aliasing table names:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> o.ordno, p.name
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ordering o
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> product p ON o.pid = p.pid;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t># Aliasing column names so that we change the title of the columns when they're printed out
+SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> o.ordno AS 'Order Number', p.name AS 'Product Name'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FROM ordering o
+JOIN product p ON o.pid = p.pid;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT o.ordno, p.name, p.price
+FROM ordering o
+JOIN product p ON o.pid = p.pid
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WHERE p.price &gt;= 0.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT p.pid, p.name, p.quantity AS 'Stock', SUM(o.quantity) AS 'Quantity Ordered'
+FROM ordering o
+JOIN product p ON o.pid = p.pid
+GROUP BY p.pid;</t>
+  </si>
+  <si>
+    <t>NULL within a place within an SQL database means that a value doesn't exist in the database.</t>
+  </si>
+  <si>
+    <t>Dealing with NULL values</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Select all parts of the data where there is NULL
+SELECT * FROM person
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">where phone IS NULL;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># Select all parts of the data where thiere are no NULL values
+SELECT * FROM person
+WHERE phone </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">IS NOT NULL;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># Count the number of rows where the comments are NOT NULL:
+SELECT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COUNT(*)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> '# Comments'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FROM borrower
+WHERE comments </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IS NOT NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT s1.name AS 'Manager', s2.name AS 'Team Member'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">From staff s1
+JOIN staff s2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ON s1.manager = s2.staffId;</t>
+    </r>
+  </si>
+  <si>
+    <t>Self JOIN (also known as INNER JOIN)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You can join a table to itself. Note that we have to use aliases here. Note also that because this is an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INNER JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (a join of a table within itself), we could have used the term </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INNER JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for the join. Although it is assumed automatically, could still be useful to use the term </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INNER JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> anyways.</t>
+    </r>
+  </si>
+  <si>
+    <t>Foreign key REFERENCES</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE TABLE ordering (
+  ordnoINTEGER PRIMARY KEY,
+  month CHAR(3) NOT NULL,
+  quantity INTEGER,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  cidCHAR(4) NOT NULL REFERENCES customer (cid),
+  pidCHAR(3) NOT NULL REFERENCES product (pid)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We have create a table which has references to other tables. To do this references does, however, require the other table to have been made. If we wanted to insert values into ths now </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REFERENCED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> table, then we can write this code:
+INSERT INTO ordering VALUES (2001,'Jan',700,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'c017','p03'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);
+Where we include the references to the other tables</t>
     </r>
   </si>
 </sst>
@@ -635,9 +1466,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -720,9 +1554,37 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="8">
   <rv s="0">
     <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>6</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>7</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -740,12 +1602,19 @@
 <file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+  <rel r:id="rId6"/>
+  <rel r:id="rId7"/>
+  <rel r:id="rId8"/>
 </richValueRels>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F6ADFDBF-32B0-4AE5-8A41-A09672AA5465}" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E16" xr:uid="{F6ADFDBF-32B0-4AE5-8A41-A09672AA5465}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F6ADFDBF-32B0-4AE5-8A41-A09672AA5465}" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E25" xr:uid="{F6ADFDBF-32B0-4AE5-8A41-A09672AA5465}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DBC7B815-F2A7-4DA5-8441-47B7F550B802}" name="Concept" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{ED6369AD-69D7-4F5F-B95F-CDD4EC63D99D}" name="Code" dataDxfId="3"/>
@@ -1054,20 +1923,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F752F51-D0E3-4E26-9966-8896CF2092BE}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="78.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="66.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="49.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="78.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="99.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1262,6 +2132,120 @@
       </c>
       <c r="B16" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="1" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="1" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="1" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="1" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="1" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="1" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F24" s="1" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/SQL Cheatsheet.xlsx
+++ b/SQL Cheatsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D740E07-9A75-4BB2-A8AA-E401BE81405F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B582493C-8651-40A7-A618-E185DBE3CDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{E4A5F62C-8D06-41C7-B4DE-EB3603C85B7B}"/>
+    <workbookView xWindow="-28020" yWindow="15" windowWidth="21600" windowHeight="11295" xr2:uid="{E4A5F62C-8D06-41C7-B4DE-EB3603C85B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL Basics" sheetId="1" r:id="rId1"/>
@@ -1925,8 +1925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F752F51-D0E3-4E26-9966-8896CF2092BE}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SQL Cheatsheet.xlsx
+++ b/SQL Cheatsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B582493C-8651-40A7-A618-E185DBE3CDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEE1209-7A7B-4E0B-9EA6-84C481A1F37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="15" windowWidth="21600" windowHeight="11295" xr2:uid="{E4A5F62C-8D06-41C7-B4DE-EB3603C85B7B}"/>
+    <workbookView xWindow="-105" yWindow="7740" windowWidth="14370" windowHeight="7845" xr2:uid="{E4A5F62C-8D06-41C7-B4DE-EB3603C85B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL Basics" sheetId="1" r:id="rId1"/>
@@ -1925,8 +1925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F752F51-D0E3-4E26-9966-8896CF2092BE}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SQL Cheatsheet.xlsx
+++ b/SQL Cheatsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEE1209-7A7B-4E0B-9EA6-84C481A1F37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1BF076-2DDC-4AC1-8687-7DD97B0159E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="7740" windowWidth="14370" windowHeight="7845" xr2:uid="{E4A5F62C-8D06-41C7-B4DE-EB3603C85B7B}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{E4A5F62C-8D06-41C7-B4DE-EB3603C85B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL Basics" sheetId="1" r:id="rId1"/>
@@ -1925,8 +1925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F752F51-D0E3-4E26-9966-8896CF2092BE}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SQL Cheatsheet.xlsx
+++ b/SQL Cheatsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1BF076-2DDC-4AC1-8687-7DD97B0159E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE14762E-552C-4B95-A6AE-223243269782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{E4A5F62C-8D06-41C7-B4DE-EB3603C85B7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E4A5F62C-8D06-41C7-B4DE-EB3603C85B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL Basics" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Concept</t>
   </si>
@@ -1344,11 +1344,53 @@
     <t>Foreign key REFERENCES</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">CREATE TABLE ordering (
-  ordnoINTEGER PRIMARY KEY,
-  month CHAR(3) NOT NULL,
-  quantity INTEGER,
+    <t>Perform mathematical calculations with SQL</t>
+  </si>
+  <si>
+    <t>SELECT product.name, (product.quantity * product.price) AS totalprice
+from product;</t>
+  </si>
+  <si>
+    <t>This line of code will produce two colums: one with the product name, and another column called totalPrice, whose values are created by multiplying product.quantity by product.price.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE TABLE communication: This part of the statement initiates the creation of a new table named communication.
+- communicationId INT PRIMARY KEY: This line defines a column named communicationId of type INT (integer), which serves as the primary key for the table. A primary key uniquely identifies each record in the table and cannot contain NULL values 1.
+- communicationTime TIME: This column, named communicationTime, is of type TIME, which stores the time of the communication.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FOREIGN KEY (cid) REFERENCES customer(cid): This</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> line establishes a foreign key constraint on the cid column. It specifies that the cid column in the communication table references the cid column in the customer table. This means that for each record in the communication table, the value of cid must exist in the cid column of the customer table. This enforces referential integrity, ensuring that there are no communication records associated with non-existent customers 1.
+In summary, this SQL statement creates a communication table with columns for storing details about various forms of communication, including a reference to the customer associated with each communication. The foreign key constraint ensures that each communication record is linked to a valid customer record.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE TABLE communication
+    communicationId INT PRIMARY KEY,
+    communicationTime TIME,
+    communicationDate DATE,
+    communicationMethod VARCHAR(50),
+    description VARCHAR(255),
 </t>
     </r>
     <r>
@@ -1360,8 +1402,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  cidCHAR(4) NOT NULL REFERENCES customer (cid),
-  pidCHAR(3) NOT NULL REFERENCES product (pid)
+      <t xml:space="preserve">    cid VARCHAR(50),
+    FOREIGN KEY (cid) REFERENCES customer(cid)
 </t>
     </r>
     <r>
@@ -1377,51 +1419,71 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">We have create a table which has references to other tables. To do this references does, however, require the other table to have been made. If we wanted to insert values into ths now </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>REFERENCED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> table, then we can write this code:
-INSERT INTO ordering VALUES (2001,'Jan',700,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'c017','p03'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>);
-Where we include the references to the other tables</t>
+      <t xml:space="preserve">We create the variable that we want to be our FOREIGN KEY like we would any other variable, then on the next line, we add the details of which items are foreign keys.
+We do this by doing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FOREIGN KEY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(column within table that we want to be foreign key)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and then we specify where it is referenced to with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REFERENCE other_table(other column we're referencing)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
     </r>
   </si>
 </sst>
@@ -1613,8 +1675,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F6ADFDBF-32B0-4AE5-8A41-A09672AA5465}" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E25" xr:uid="{F6ADFDBF-32B0-4AE5-8A41-A09672AA5465}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F6ADFDBF-32B0-4AE5-8A41-A09672AA5465}" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E26" xr:uid="{F6ADFDBF-32B0-4AE5-8A41-A09672AA5465}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DBC7B815-F2A7-4DA5-8441-47B7F550B802}" name="Concept" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{ED6369AD-69D7-4F5F-B95F-CDD4EC63D99D}" name="Code" dataDxfId="3"/>
@@ -1923,10 +1985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F752F51-D0E3-4E26-9966-8896CF2092BE}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2237,15 +2299,29 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="315" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>77</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/SQL Cheatsheet.xlsx
+++ b/SQL Cheatsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE14762E-552C-4B95-A6AE-223243269782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB811277-73D3-4444-A32B-8CD220077C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E4A5F62C-8D06-41C7-B4DE-EB3603C85B7B}"/>
+    <workbookView xWindow="28680" yWindow="5895" windowWidth="29040" windowHeight="15720" xr2:uid="{E4A5F62C-8D06-41C7-B4DE-EB3603C85B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL Basics" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Concept</t>
   </si>
@@ -1484,6 +1484,191 @@
         <scheme val="minor"/>
       </rPr>
       <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Choose from only a select number of items when creating the table with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ENUM</t>
+    </r>
+  </si>
+  <si>
+    <t>Automatically auto-increment the Primary Key and add NOT NULL</t>
+  </si>
+  <si>
+    <t>Set a default value for columns in a table</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE TABLE Person(
+    personID INT PRIMARY KEY NOT NULL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AUTO_INCREMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,
+    name VARCHAR(50) NOT NULL,
+    gender ENUM('M', 'F', 'O') NOT NULL,
+);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE TABLE Person(
+    personID INT PRIMARY KEY,
+    name VARCHAR(50),
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gender ENUM('M', 'F', 'O'),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE TABLE Score(
+    scoreID INT PRIMARY KEY NOT NULL AUTO_INCREMENT,
+    score1 INT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DEFAULT 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,
+    score2 INT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DEFAULT 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,
+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We can create default values with the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DEFAULT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> keyword, then insert whatever we'd like afterwards.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AUTO_INCREMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> keyword makes it so that we don't need to manually insert the primary key all the time</t>
     </r>
   </si>
 </sst>
@@ -1675,8 +1860,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F6ADFDBF-32B0-4AE5-8A41-A09672AA5465}" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E26" xr:uid="{F6ADFDBF-32B0-4AE5-8A41-A09672AA5465}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F6ADFDBF-32B0-4AE5-8A41-A09672AA5465}" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E29" xr:uid="{F6ADFDBF-32B0-4AE5-8A41-A09672AA5465}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DBC7B815-F2A7-4DA5-8441-47B7F550B802}" name="Concept" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{ED6369AD-69D7-4F5F-B95F-CDD4EC63D99D}" name="Code" dataDxfId="3"/>
@@ -1985,15 +2170,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F752F51-D0E3-4E26-9966-8896CF2092BE}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="78.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="66.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="49.42578125" style="1" customWidth="1"/>
@@ -2038,7 +2223,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -2046,7 +2231,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2146,7 +2331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -2196,7 +2381,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
@@ -2224,7 +2409,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
@@ -2246,7 +2431,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -2257,7 +2442,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -2282,7 +2467,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>73</v>
       </c>
@@ -2313,7 +2498,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
@@ -2322,6 +2507,36 @@
       </c>
       <c r="C26" s="1" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/SQL Cheatsheet.xlsx
+++ b/SQL Cheatsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB811277-73D3-4444-A32B-8CD220077C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24E25FE-5747-4985-A584-EF2D5D0E19D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="5895" windowWidth="29040" windowHeight="15720" xr2:uid="{E4A5F62C-8D06-41C7-B4DE-EB3603C85B7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E4A5F62C-8D06-41C7-B4DE-EB3603C85B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL Basics" sheetId="1" r:id="rId1"/>
@@ -2172,8 +2172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F752F51-D0E3-4E26-9966-8896CF2092BE}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
